--- a/streamlit/data/page0.xlsx
+++ b/streamlit/data/page0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9120"/>
+    <workbookView windowWidth="7764" windowHeight="4463"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,11 +71,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,21 +176,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,97 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +230,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,55 +338,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,97 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,48 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,17 +439,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +489,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,137 +541,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +679,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,12 +1006,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111"/>
+    <col min="2" max="2" width="23.2222222222222"/>
     <col min="3" max="3" width="25.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1028,7 +1038,7 @@
         <v>-37.815018</v>
       </c>
       <c r="C2">
-        <v>5074</v>
+        <v>29361</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1042,7 +1052,7 @@
         <v>-33.865143</v>
       </c>
       <c r="C3">
-        <v>7850</v>
+        <v>28563</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1056,21 +1066,21 @@
         <v>-34.906101</v>
       </c>
       <c r="C4">
-        <v>1342</v>
+        <v>5864</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>115.857048</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-31.953512</v>
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="3">
+        <v>153.026</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-27.4705</v>
       </c>
       <c r="C5">
-        <v>567</v>
+        <v>12940</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
